--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Réduire la taille de l’image</t>
   </si>
   <si>
-    <t xml:space="preserve">Langue non précisé</t>
+    <t xml:space="preserve">Langue non précisée</t>
   </si>
   <si>
     <t xml:space="preserve">Balise meta lang sans valeur</t>
@@ -119,6 +119,48 @@
   </si>
   <si>
     <t xml:space="preserve">Utilise seulement des liens pertinent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom de la page contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page contact nommée ‘Page 2’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nommée les pages correctement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fichier non minifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minifier les fichiers pour gagner temps de chargements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validator W3C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">html ne respecte pas les réglementation W3C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corriger les erreurs identifier par W3C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Localisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mots clefs précisent Paris a la place de Lyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilise la bonne localisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">propriété Clip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clip est une propriété obsolète, qui peut affecter le fonctionnement du site </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplacer par clip-path</t>
   </si>
 </sst>
 </file>
@@ -327,17 +369,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="61.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="10.57"/>
@@ -511,18 +553,75 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>37</v>
+      </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>40</v>
+      </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>46</v>
+      </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
